--- a/src/main/resources/output/test_metadata.xlsx
+++ b/src/main/resources/output/test_metadata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6720" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7028" uniqueCount="1475">
   <si>
     <t>规则代码</t>
   </si>
@@ -9189,7 +9189,7 @@
               , t1.cpdm     AS cpdm        -- 产品代码
               , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
               , 0           AS fxdj        -- 风险等级 0-严重 1-警告
-FROM report_cisp.wdb_amp_subprod_oprt t1
+FROM report_cisp.wdb_amp_prod_nav t1
 WHERE t1.jgdm = '70610000'
   AND t1.status NOT IN ('3', '5')
   AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
@@ -11115,10 +11115,801 @@
     <t>AM00478</t>
   </si>
   <si>
+    <t>[资产组合].{资产类别}为“108-买入返售资产”的[资产组合].{期末市值}==(SUM{期末金额} WHERE {回购方向}为“逆回购”)+(SUM[协议回购投资明细].{期末金额} WHERE {回购方向}为“逆回购” AND {回购类型}不为“股票质押式回购（场内）” AND {回购类型}不为“股票质押式回购（场外）” AND {回购类型}不为“股权质押式回购”)</t>
+  </si>
+  <si>
+    <t>J1026-资产组合 J1037-协议回购投资明细</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00478'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM (SELECT tt1.jgdm
+           , tt1.status
+           , tt1.sjrq
+           , tt1.cpdm
+           -- 回购方向: 2-逆回购
+           , sum(CASE WHEN tt1.hgfx = '2' THEN tt1.qmje ELSE 0 END)
+                 OVER (PARTITION BY tt1.jgdm, tt1.status,tt1.sjrq, tt1.cpdm) AS sum_qmje
+      FROM report_cisp.wdb_amp_inv_bdrepo tt1) t1
+         LEFT JOIN (SELECT tt2.jgdm
+                         , tt2.status
+                         , tt2.sjrq
+                         , tt2.cpdm
+                         -- 回购方向: 2-逆回购
+                         -- 回购类型: 06-股票质押式回购（场内）、07-股票质押式回购（场外）、08-股权质押式回购
+                         , sum(
+            CASE WHEN tt2.hgfx = '2' AND tt2.hglx NOT IN ('06', '07', '08') THEN tt2.qmje ELSE 0 END)
+            OVER (PARTITION BY tt2.jgdm, tt2.status,tt2.sjrq, tt2.cpdm) AS sum_qmje
+                    FROM report_cisp.wdb_amp_inv_agrmrepo tt2) t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq = t2.sjrq
+                       AND t1.cpdm = t2.cpdm
+         LEFT JOIN report_cisp.wdb_amp_inv_assets t3
+                   ON t1.jgdm = t3.jgdm
+                       AND t1.status = t3.status
+                       AND t1.sjrq = t3.sjrq
+                       AND t1.cpdm = t3.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  -- 资产类别: 108-买入返售资产
+  AND t3.zclb = '108'
+  AND t3.qmsz &lt;&gt; t1.sum_qmje + t2.sum_qmje</t>
+  </si>
+  <si>
+    <t>AM00479</t>
+  </si>
+  <si>
+    <t>[资产组合].{资产类别}为“111-融入资金”的[资产组合].{期末市值}==(SUM{期末金额} WHERE {回购方向}为“正回购”)+(SUM[协议回购投资明细].{期末金额} WHERE {回购方向}为“正回购” AND {回购类型}不为“股票质押式回购（场内）” AND {回购类型}不为“股票质押式回购（场外）” AND {回购类型}不为“股权质押式回购”)</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00479'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM (SELECT tt1.jgdm
+           , tt1.status
+           , tt1.sjrq
+           , tt1.cpdm
+           -- 回购方向: 1-正回购
+           , sum(CASE WHEN tt1.hgfx = '1' THEN tt1.qmje ELSE 0 END)
+                 OVER (PARTITION BY tt1.jgdm, tt1.status,tt1.sjrq, tt1.cpdm) AS sum_qmje
+      FROM report_cisp.wdb_amp_inv_bdrepo tt1) t1
+         LEFT JOIN (SELECT tt2.jgdm
+                         , tt2.status
+                         , tt2.sjrq
+                         , tt2.cpdm
+                         -- 回购方向: 1-正回购
+                         -- 回购类型: 06-股票质押式回购（场内）、07-股票质押式回购（场外）、08-股权质押式回购
+                         , sum(
+            CASE WHEN tt2.hgfx = '1' AND tt2.hglx NOT IN ('06', '07', '08') THEN tt2.qmje ELSE 0 END)
+            OVER (PARTITION BY tt2.jgdm, tt2.status,tt2.sjrq, tt2.cpdm) AS sum_qmje
+                    FROM report_cisp.wdb_amp_inv_agrmrepo tt2) t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq = t2.sjrq
+                       AND t1.cpdm = t2.cpdm
+         LEFT JOIN report_cisp.wdb_amp_inv_assets t3
+                   ON t1.jgdm = t3.jgdm
+                       AND t1.status = t3.status
+                       AND t1.sjrq = t3.sjrq
+                       AND t1.cpdm = t3.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  -- 资产类别: 111-融入资金
+  AND t3.zclb = '111'
+  AND t3.qmsz &lt;&gt; t1.sum_qmje + t2.sum_qmje</t>
+  </si>
+  <si>
+    <t>AM00480</t>
+  </si>
+  <si>
+    <t>[QDII及FOF资产组合].{资产类别}为“108-买入返售资产”的[QDII及FOF资产组合].{期末市值}==(SUM{期末金额} WHERE {回购方向}为“逆回购”)+(SUM[协议回购投资明细].{期末金额} WHERE {回购方向}为“逆回购” AND {回购类型}不为“股票质押式回购（场内）” AND {回购类型}不为“股票质押式回购（场外）” AND {回购类型}不为“股权质押式回购”)</t>
+  </si>
+  <si>
+    <t>J1027-QDII及FOF资产组合 J1037-协议回购投资明细</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00480'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM (SELECT tt1.jgdm
+           , tt1.status
+           , tt1.sjrq
+           , tt1.cpdm
+           -- 回购方向: 2-逆回购
+           , sum(CASE WHEN tt1.hgfx = '2' THEN tt1.qmje ELSE 0 END)
+                 OVER (PARTITION BY tt1.jgdm, tt1.status,tt1.sjrq, tt1.cpdm) AS sum_qmje
+      FROM report_cisp.wdb_amp_inv_bdrepo tt1) t1
+         LEFT JOIN (SELECT tt2.jgdm
+                         , tt2.status
+                         , tt2.sjrq
+                         , tt2.cpdm
+                         -- 回购方向: 2-逆回购
+                         -- 回购类型: 06-股票质押式回购（场内）、07-股票质押式回购（场外）、08-股权质押式回购
+                         , sum(
+            CASE WHEN tt2.hgfx = '2' AND tt2.hglx NOT IN ('06', '07', '08') THEN tt2.qmje ELSE 0 END)
+            OVER (PARTITION BY tt2.jgdm, tt2.status,tt2.sjrq, tt2.cpdm) AS sum_qmje
+                    FROM report_cisp.wdb_amp_inv_agrmrepo tt2) t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq = t2.sjrq
+                       AND t1.cpdm = t2.cpdm
+         LEFT JOIN report_cisp.wdb_amp_inv_qd_assets t3
+                   ON t1.jgdm = t3.jgdm
+                       AND t1.status = t3.status
+                       AND t1.sjrq = t3.sjrq
+                       AND t1.cpdm = t3.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  -- 资产类别: 108-买入返售资产
+  AND t3.zclb = '108'
+  AND t3.qmsz &lt;&gt; t1.sum_qmje + t2.sum_qmje</t>
+  </si>
+  <si>
+    <t>AM00481</t>
+  </si>
+  <si>
+    <t>[QDII及FOF资产组合].{资产类别}为“111-融入资金”的[QDII及FOF资产组合].{期末市值}==(SUM{期末金额} WHERE {回购方向}为“正回购”)+(SUM[协议回购投资明细].{期末金额} WHERE {回购方向}为“正回购” AND {回购类型}不为“股票质押式回购（场内）” AND {回购类型}不为“股票质押式回购（场外）” AND {回购类型}不为“股权质押式回购”)</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00481'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM (SELECT tt1.jgdm
+           , tt1.status
+           , tt1.sjrq
+           , tt1.cpdm
+           -- 回购方向: 1-正回购
+           , sum(CASE WHEN tt1.hgfx = '1' THEN tt1.qmje ELSE 0 END)
+                 OVER (PARTITION BY tt1.jgdm, tt1.status,tt1.sjrq, tt1.cpdm) AS sum_qmje
+      FROM report_cisp.wdb_amp_inv_bdrepo tt1) t1
+         LEFT JOIN (SELECT tt2.jgdm
+                         , tt2.status
+                         , tt2.sjrq
+                         , tt2.cpdm
+                         -- 回购方向: 1-正回购
+                         -- 回购类型: 06-股票质押式回购（场内）、07-股票质押式回购（场外）、08-股权质押式回购
+                         , sum(
+            CASE WHEN tt2.hgfx = '1' AND tt2.hglx NOT IN ('06', '07', '08') THEN tt2.qmje ELSE 0 END)
+            OVER (PARTITION BY tt2.jgdm, tt2.status,tt2.sjrq, tt2.cpdm) AS sum_qmje
+                    FROM report_cisp.wdb_amp_inv_agrmrepo tt2) t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq = t2.sjrq
+                       AND t1.cpdm = t2.cpdm
+         LEFT JOIN report_cisp.wdb_amp_inv_qd_assets t3
+                   ON t1.jgdm = t3.jgdm
+                       AND t1.status = t3.status
+                       AND t1.sjrq = t3.sjrq
+                       AND t1.cpdm = t3.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  -- 资产类别: 111-融入资金
+  AND t3.zclb = '111'
+  AND t3.qmsz &lt;&gt; t1.sum_qmje + t2.sum_qmje</t>
+  </si>
+  <si>
+    <t>AM00482</t>
+  </si>
+  <si>
+    <t>{期末数量}=上期[商品现货投资明细].{期末数量}+{买入数量}-{卖出数量}</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00482'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM report_cisp.wdb_amp_inv_comspt t1
+         LEFT JOIN report_cisp.wdb_amp_inv_comspt t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq =
+                           (SELECT max(tt1.sjrq) FROM report_cisp.wdb_amp_inv_comspt tt1 WHERE tt1.sjrq &lt; t1.sjrq)
+                       AND t1.cpdm = t2.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  AND t1.qmsl &lt;&gt; t2.qmsl + t1.mrsl - t1.mcsl</t>
+  </si>
+  <si>
+    <t>AM00483</t>
+  </si>
+  <si>
+    <t>[资产组合].{资产类别}为“109-商品”的[资产组合].{期末市值}==SUM{期末市值}</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00483'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM (SELECT tt1.jgdm
+           , tt1.status
+           , tt1.sjrq
+           , tt1.cpdm
+           , sum(tt1.qmsz) AS sum_qmsz
+      FROM report_cisp.wdb_amp_inv_comspt tt1
+      GROUP BY tt1.jgdm, tt1.status, tt1.sjrq, tt1.cpdm) t1
+         LEFT JOIN report_cisp.wdb_amp_inv_assets t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq = t2.sjrq
+                       AND t1.cpdm = t2.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  -- 资产类别: 109-商品
+  AND t2.zclb = '109'
+  AND t2.qmsz &lt;&gt; t1.sum_qmsz</t>
+  </si>
+  <si>
+    <t>AM00484</t>
+  </si>
+  <si>
+    <t>[QDII及FOF资产组合].{资产类别}为“109-商品”的[QDII及FOF资产组合].{期末市值}==SUM{期末市值}</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00484'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM (SELECT tt1.jgdm
+           , tt1.status
+           , tt1.sjrq
+           , tt1.cpdm
+           , sum(tt1.qmsz) AS sum_qmsz
+      FROM report_cisp.wdb_amp_inv_comspt tt1
+      GROUP BY tt1.jgdm, tt1.status, tt1.sjrq, tt1.cpdm) t1
+         LEFT JOIN report_cisp.wdb_amp_prod_qd_nav t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq = t2.sjrq
+                       AND t1.cpdm = t2.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  -- 资产类别: 109-商品
+  AND t2.zclb = '109'
+  AND t2.qmsz &lt;&gt; t1.sum_qmsz</t>
+  </si>
+  <si>
+    <t>AM00485</t>
+  </si>
+  <si>
+    <t>{期末数量}==上期[商品现货延期交收投资明细].{期末数量}+{开仓数量}-{平仓数量}</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00485'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM report_cisp.wdb_amp_inv_comsptdly t1
+         LEFT JOIN report_cisp.wdb_amp_inv_comsptdly t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq =
+                           (SELECT max(tt1.sjrq) FROM report_cisp.wdb_amp_inv_comspt tt1 WHERE tt1.sjrq &lt; t1.sjrq)
+                       AND t1.cpdm = t2.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  AND t1.qmsl &lt;&gt; t2.qmsl + t1.kcsl - t1.pcsl</t>
+  </si>
+  <si>
+    <t>AM00486</t>
+  </si>
+  <si>
+    <t>[资产组合].{资产类别}为“110-商品及金融衍生品（场内集中交易清算）”的[资产组合].{期末市值}==SUM{期末合约价值}+SUM[金融期货投资明细].{期末合约价值}+SUM[商品期货投资明细].{期末合约价值}+SUM[场内期权投资明细].{期末合约价值}</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>J1026-资产组合 J1041-金融期货投资明细 J1042-商品期货投资明细 J1043-场内期权投资明细</t>
+  </si>
+  <si>
+    <t>日 日 日 日</t>
+  </si>
+  <si>
+    <t>T+1日24:00前 T+4日24:00前 T+4日24:00前 T+4日24:00前</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00486'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM (SELECT tt1.jgdm
+           , tt1.status
+           , tt1.sjrq
+           , tt1.cpdm
+           , sum(tt1.qmhyjz) AS sum_qmsz
+      FROM report_cisp.wdb_amp_inv_comsptdly tt1
+      GROUP BY tt1.jgdm, tt1.status, tt1.sjrq, tt1.cpdm) t1
+         LEFT JOIN (SELECT tt2.jgdm
+                         , tt2.status
+                         , tt2.sjrq
+                         , tt2.cpdm
+                         , sum(tt2.qmhyjz) AS sum_qmsz
+                    FROM report_cisp.wdb_amp_inv_finftr tt2
+                    GROUP BY tt2.jgdm, tt2.status, tt2.sjrq, tt2.cpdm) t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq = t2.sjrq
+                       AND t1.cpdm = t2.cpdm
+         LEFT JOIN (SELECT tt3.jgdm
+                         , tt3.status
+                         , tt3.sjrq
+                         , tt3.cpdm
+                         , sum(tt3.qmhyjz) AS sum_qmsz
+                    FROM report_cisp.wdb_amp_inv_comftr tt3
+                    GROUP BY tt3.jgdm, tt3.status, tt3.sjrq, tt3.cpdm) t3
+                   ON t1.jgdm = t3.jgdm
+                       AND t1.status = t3.status
+                       AND t1.sjrq = t3.sjrq
+                       AND t1.cpdm = t3.cpdm
+         LEFT JOIN (SELECT tt4.jgdm
+                         , tt4.status
+                         , tt4.sjrq
+                         , tt4.cpdm
+                         , sum(tt4.qmhyjz) AS sum_qmsz
+                    FROM report_cisp.wdb_amp_inv_opt tt4
+                    GROUP BY tt4.jgdm, tt4.status, tt4.sjrq, tt4.cpdm) t4
+                   ON t1.jgdm = t4.jgdm
+                       AND t1.status = t4.status
+                       AND t1.sjrq = t4.sjrq
+                       AND t1.cpdm = t4.cpdm
+         LEFT JOIN report_cisp.wdb_amp_inv_assets t5
+                   ON t1.jgdm = t5.jgdm
+                       AND t1.status = t5.status
+                       AND t1.sjrq = t5.sjrq
+                       AND t1.cpdm = t5.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  -- 资产类别: 110-商品及金融衍生品（场内集中交易清算）
+  AND t3.zclb = '110'
+  AND t5.qmsz &lt;&gt; t1.sum_qmsz + t2.sum_qmsz + t3.sum_qmsz + t4.sum_qmsz</t>
+  </si>
+  <si>
+    <t>AM00487</t>
+  </si>
+  <si>
+    <t>[QDII及FOF资产组合].{资产类别}为“110-商品及金融衍生品（场内集中交易清算）”的[QDII及FOF资产组合].{期末市值}==SUM{期末合约价值}+SUM[金融期货投资明细].{期末合约价值}+SUM[商品期货投资明细].{期末合约价值}+SUM[场内期权投资明细].{期末合约价值}</t>
+  </si>
+  <si>
+    <t>J1027-QDII及FOF资产组合 J1041-金融期货投资明细 J1042-商品期货投资明细 J1043-场内期权投资明细</t>
+  </si>
+  <si>
+    <t>T+4日24:00前 T+4日24:00前 T+4日24:00前 T+4日24:00前</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00487'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM (SELECT tt1.jgdm
+           , tt1.status
+           , tt1.sjrq
+           , tt1.cpdm
+           , sum(tt1.qmhyjz) AS sum_qmsz
+      FROM report_cisp.wdb_amp_inv_comsptdly tt1
+      GROUP BY tt1.jgdm, tt1.status, tt1.sjrq, tt1.cpdm) t1
+         LEFT JOIN (SELECT tt2.jgdm
+                         , tt2.status
+                         , tt2.sjrq
+                         , tt2.cpdm
+                         , sum(tt2.qmhyjz) AS sum_qmsz
+                    FROM report_cisp.wdb_amp_inv_finftr tt2
+                    GROUP BY tt2.jgdm, tt2.status, tt2.sjrq, tt2.cpdm) t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq = t2.sjrq
+                       AND t1.cpdm = t2.cpdm
+         LEFT JOIN (SELECT tt3.jgdm
+                         , tt3.status
+                         , tt3.sjrq
+                         , tt3.cpdm
+                         , sum(tt3.qmhyjz) AS sum_qmsz
+                    FROM report_cisp.wdb_amp_inv_comftr tt3
+                    GROUP BY tt3.jgdm, tt3.status, tt3.sjrq, tt3.cpdm) t3
+                   ON t1.jgdm = t3.jgdm
+                       AND t1.status = t3.status
+                       AND t1.sjrq = t3.sjrq
+                       AND t1.cpdm = t3.cpdm
+         LEFT JOIN (SELECT tt4.jgdm
+                         , tt4.status
+                         , tt4.sjrq
+                         , tt4.cpdm
+                         , sum(tt4.qmhyjz) AS sum_qmsz
+                    FROM report_cisp.wdb_amp_inv_opt tt4
+                    GROUP BY tt4.jgdm, tt4.status, tt4.sjrq, tt4.cpdm) t4
+                   ON t1.jgdm = t4.jgdm
+                       AND t1.status = t4.status
+                       AND t1.sjrq = t4.sjrq
+                       AND t1.cpdm = t4.cpdm
+         LEFT JOIN report_cisp.wdb_amp_prod_qd_nav t5
+                   ON t1.jgdm = t5.jgdm
+                       AND t1.status = t5.status
+                       AND t1.sjrq = t5.sjrq
+                       AND t1.cpdm = t5.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  -- 资产类别: 110-商品及金融衍生品（场内集中交易清算）
+  AND t3.zclb = '110'
+  AND t5.qmsz &lt;&gt; t1.sum_qmsz + t2.sum_qmsz + t3.sum_qmsz + t4.sum_qmsz</t>
+  </si>
+  <si>
+    <t>AM00488</t>
+  </si>
+  <si>
+    <t>{期末数量}==上期[金融期货投资明细].{期末数量}+{开仓数量}-{平仓数量}</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00488'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM report_cisp.wdb_amp_inv_finftr t1
+         LEFT JOIN report_cisp.wdb_amp_inv_finftr t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq =
+                           (SELECT max(tt1.sjrq) FROM report_cisp.wdb_amp_inv_finftr tt1 WHERE tt1.sjrq &lt; t1.sjrq)
+                       AND t1.cpdm = t2.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  AND t1.qmsl &lt;&gt; t2.qmsl + t1.kcsl - t1.pcsl</t>
+  </si>
+  <si>
+    <t>AM00489</t>
+  </si>
+  <si>
+    <t>{期末数量}==上期[商品期货投资明细].{期末数量}+{开仓数量}-{平仓数量}</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00489'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM report_cisp.wdb_amp_inv_comftr t1
+         LEFT JOIN report_cisp.wdb_amp_inv_comftr t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq =
+                           (SELECT max(tt1.sjrq) FROM report_cisp.wdb_amp_inv_comftr tt1 WHERE tt1.sjrq &lt; t1.sjrq)
+                       AND t1.cpdm = t2.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  AND t1.qmsl &lt;&gt; t2.qmsl + t1.kcsl - t1.pcsl</t>
+  </si>
+  <si>
+    <t>AM00490</t>
+  </si>
+  <si>
+    <t>{期末数量}==上期[场内期权投资明细].{期末数量}+{开仓数量}-{平仓数量}</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00490'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM report_cisp.wdb_amp_inv_opt t1
+         LEFT JOIN report_cisp.wdb_amp_inv_opt t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq =
+                           (SELECT max(tt1.sjrq) FROM report_cisp.wdb_amp_inv_opt tt1 WHERE tt1.sjrq &lt; t1.sjrq)
+                       AND t1.cpdm = t2.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  AND t1.qmsl &lt;&gt; t2.qmsl + t1.kcsl - t1.pcsl</t>
+  </si>
+  <si>
+    <t>AM00491</t>
+  </si>
+  <si>
+    <t>[资产组合].{资产类别}为“105-现金和活期存款”、“199-其他标准化资产”的[资产组合].{期末市值}==SUM[活期存款投资明细]{期末金额}+SUM{期末金额}</t>
+  </si>
+  <si>
+    <t>J1026-资产组合 J1034-活期存款投资明细</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00491'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM (SELECT tt1.jgdm
+           , tt1.status
+           , tt1.sjrq
+           , tt1.cpdm
+           , sum(tt1.qmje) AS sum_qmje
+      FROM report_cisp.wdb_amp_inv_othassets tt1
+      GROUP BY tt1.jgdm, tt1.status, tt1.sjrq, tt1.cpdm) t1
+         LEFT JOIN (SELECT tt2.jgdm
+                         , tt2.status
+                         , tt2.sjrq
+                         , tt2.cpdm
+                         , sum(tt2.qmje) AS sum_qmje
+                    FROM report_cisp.wdb_amp_inv_curdepo tt2
+                    GROUP BY tt2.jgdm, tt2.status, tt2.sjrq, tt2.cpdm) t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq = t2.sjrq
+                       AND t1.cpdm = t2.cpdm
+         LEFT JOIN report_cisp.wdb_amp_inv_assets t3
+                   ON t1.jgdm = t3.jgdm
+                       AND t1.status = t3.status
+                       AND t1.sjrq = t3.sjrq
+                       AND t1.cpdm = t3.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  -- 资产类别: 105-现金和活期存款、199-其他标准化资产
+  AND t2.zclb IN ('105', '199')
+  AND t3.qmje &lt;&gt; t1.sum_qmje + t2.sum_qmje</t>
+  </si>
+  <si>
+    <t>AM00492</t>
+  </si>
+  <si>
+    <t>[QDII及FOF资产组合].{资产类别}为“105-现金和活期存款”、“199-其他标准化资产”的[QDII及FOF资产组合].{期末市值}==SUM[活期存款投资明细]{期末金额}+SUM{期末金额}</t>
+  </si>
+  <si>
+    <t>J1027-QDII及FOF资产组合 J1034-活期存款投资明细</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00492'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM (SELECT tt1.jgdm
+           , tt1.status
+           , tt1.sjrq
+           , tt1.cpdm
+           , sum(tt1.qmje) AS sum_qmje
+      FROM report_cisp.wdb_amp_inv_othassets tt1
+      GROUP BY tt1.jgdm, tt1.status, tt1.sjrq, tt1.cpdm) t1
+         LEFT JOIN (SELECT tt2.jgdm
+                         , tt2.status
+                         , tt2.sjrq
+                         , tt2.cpdm
+                         , sum(tt2.qmje) AS sum_qmje
+                    FROM report_cisp.wdb_amp_inv_curdepo tt2
+                    GROUP BY tt2.jgdm, tt2.status, tt2.sjrq, tt2.cpdm) t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq = t2.sjrq
+                       AND t1.cpdm = t2.cpdm
+         LEFT JOIN report_cisp.wdb_amp_inv_qd_assets t3
+                   ON t1.jgdm = t3.jgdm
+                       AND t1.status = t3.status
+                       AND t1.sjrq = t3.sjrq
+                       AND t1.cpdm = t3.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  -- 资产类别: 105-现金和活期存款、199-其他标准化资产
+  AND t2.zclb IN ('105', '199')
+  AND t3.qmje &lt;&gt; t1.sum_qmje + t2.sum_qmje</t>
+  </si>
+  <si>
+    <t>AM00493</t>
+  </si>
+  <si>
+    <t>[资产组合].{资产类别}为“205-资产支持证券（未在交易所挂牌）”的[资产组合].{期末市值}==SUM{期末市值}</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00493'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM (SELECT tt1.jgdm
+           , tt1.status
+           , tt1.sjrq
+           , tt1.cpdm
+           , sum(tt1.qmsz) AS sum_qmsz
+      FROM report_cisp.wdb_amp_inv_abs tt1
+      GROUP BY tt1.jgdm, tt1.status, tt1.sjrq, tt1.cpdm) t1
+         LEFT JOIN report_cisp.wdb_amp_inv_assets t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq = t2.sjrq
+                       AND t1.cpdm = t2.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  -- 资产类别: 205-资产支持证券（未在交易所挂牌）
+  AND t2.zclb = '205'
+  AND t2.qmsz &lt;&gt; t1.sum_qmsz</t>
+  </si>
+  <si>
+    <t>AM00494</t>
+  </si>
+  <si>
+    <t>[QDII及FOF资产组合].{资产类别}为“205-资产支持证券（未在交易所挂牌）”的[QDII及FOF资产组合].{期末市值}==SUM{期末市值}</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00494'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM (SELECT tt1.jgdm
+           , tt1.status
+           , tt1.sjrq
+           , tt1.cpdm
+           , sum(tt1.qmsz) AS sum_qmsz
+      FROM report_cisp.wdb_amp_inv_abs tt1
+      GROUP BY tt1.jgdm, tt1.status, tt1.sjrq, tt1.cpdm) t1
+         LEFT JOIN report_cisp.wdb_amp_inv_qd_assets t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq = t2.sjrq
+                       AND t1.cpdm = t2.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  -- 资产类别: 205-资产支持证券（未在交易所挂牌）
+  AND t2.zclb = '205'
+  AND t2.qmsz &lt;&gt; t1.sum_qmsz</t>
+  </si>
+  <si>
+    <t>AM00495</t>
+  </si>
+  <si>
+    <t>[资产组合].{资产类别}为“209-转融券”的[资产组合].{期末市值}==SUM{期末市值}</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00495'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM (SELECT tt1.jgdm
+           , tt1.status
+           , tt1.sjrq
+           , tt1.cpdm
+           , sum(tt1.qmsz) AS sum_qmsz
+      FROM report_cisp.wdb_amp_inv_refinance tt1
+      GROUP BY tt1.jgdm, tt1.status, tt1.sjrq, tt1.cpdm) t1
+         LEFT JOIN report_cisp.wdb_amp_inv_assets t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq = t2.sjrq
+                       AND t1.cpdm = t2.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  -- 资产类别: 209-转融券
+  AND t2.zclb = '209'
+  AND t2.qmsz &lt;&gt; t1.sum_qmsz</t>
+  </si>
+  <si>
+    <t>AM00496</t>
+  </si>
+  <si>
+    <t>[QDII及FOF资产组合].{资产类别}为“209-转融券”的[QDII及FOF资产组合].{期末市值}==SUM{期末市值}</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00496'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM (SELECT tt1.jgdm
+           , tt1.status
+           , tt1.sjrq
+           , tt1.cpdm
+           , sum(tt1.qmsz) AS sum_qmsz
+      FROM report_cisp.wdb_amp_inv_refinance tt1
+      GROUP BY tt1.jgdm, tt1.status, tt1.sjrq, tt1.cpdm) t1
+         LEFT JOIN report_cisp.wdb_amp_inv_qd_assets t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq = t2.sjrq
+                       AND t1.cpdm = t2.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t2 --若测试，请注释本行
+  -- 资产类别: 209-转融券
+  AND t2.zclb = '209'
+  AND t2.qmsz &lt;&gt; t1.sum_qmsz</t>
+  </si>
+  <si>
+    <t>AM00497</t>
+  </si>
+  <si>
+    <t>{影子定价确定的资产净值与摊余成本法计算的资产净值的偏离金额}=={影子定价确定的资产净值}-{摊余成本法计算的资产净值}</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00497'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM report_cisp.wdb_amp_rsk_monitor t1
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t1 --若测试，请注释本行
+  AND t1.yzdjqddzcjzytycbfjsdzcjzdplje &lt;&gt; t1.yzdjdzcjz - t1.tycbfjsdzcjz</t>
+  </si>
+  <si>
+    <t>AM00498</t>
+  </si>
+  <si>
+    <t>{影子定价确定的资产净值与摊余成本法计算的资产净值的偏离度}==ROUND({影子定价确定的资产净值与摊余成本法计算的资产净值的偏离金额}/{摊余成本法计算的资产净值},6)</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00498'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM report_cisp.wdb_amp_rsk_monitor t1
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t1 --若测试，请注释本行
+  AND t1.yzdjqddzcjzytycbfjsdzcjzdpld &lt;&gt; round(t1.yzdjqddzcjzytycbfjsdzcjzdplje / t1.tycbfjsdzcjz, 6)</t>
+  </si>
+  <si>
+    <t>AM00499</t>
+  </si>
+  <si>
+    <t>{基金净值}=[产品净值信息].{资产净值},{七日年化收益率}=[产品净值信息].{七日年化收益率}</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00499'   AS gzdm        -- 规则代码
+              , t1.sjrq     AS sjrq        -- 数据日期
+              , t1.cpdm     AS cpdm        -- 产品代码
+              , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
+              , 0           AS fxdj        -- 风险等级 0-严重 1-警告
+FROM report_cisp.wdb_amp_rsk_monitor t1
+         LEFT JOIN report_cisp.wdb_amp_prod_nav t2
+                   ON t1.jgdm = t2.jgdm
+                       AND t1.status = t2.status
+                       AND t1.sjrq = t2.sjrq
+                       AND t1.cpdm = t2.cpdm
+WHERE t1.jgdm = '70610000'
+  AND t1.status NOT IN ('3', '5')
+  AND t1.sjrq = v_pi_end_date_t1 --若测试，请注释本行
+  AND (t1.jjjz &lt;&gt; t2.zcjz OR t1.qrnhsyl &lt;&gt; t2.qrnhsyl)</t>
+  </si>
+  <si>
+    <t>AM00500</t>
+  </si>
+  <si>
     <t>样例</t>
   </si>
   <si>
-    <t>SELECT DISTINCT 'AM00478'   AS gzdm        -- 规则代码
+    <t>SELECT DISTINCT 'AM00500'   AS gzdm        -- 规则代码
               , t1.sjrq     AS sjrq        -- 数据日期
               , t1.cpdm     AS cpdm        -- 产品代码
               , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
@@ -11135,10 +11926,10 @@
   AND t2.cpdm IS NULL</t>
   </si>
   <si>
-    <t>AM00479</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT 'AM00479'   AS gzdm        -- 规则代码
+    <t>AM00501</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 'AM00501'   AS gzdm        -- 规则代码
               , t2.sjrq     AS sjrq        -- 数据日期
               , t2.cpdm     AS cpdm        -- 产品代码
               , pi_end_date AS insert_time -- 插入时间，若测试，请注释本行
@@ -11206,7 +11997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N480"/>
+  <dimension ref="A1:N502"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -22161,7 +22952,7 @@
         <v>16</v>
       </c>
       <c r="K249" t="s" s="0">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="L249" t="s" s="0">
         <v>22</v>
@@ -32254,16 +33045,16 @@
         <v>1394</v>
       </c>
       <c r="B479" t="s" s="0">
-        <v>352</v>
+        <v>203</v>
       </c>
       <c r="C479" t="s" s="0">
         <v>16</v>
       </c>
       <c r="D479" t="s" s="0">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E479" t="s" s="0">
-        <v>353</v>
+        <v>1395</v>
       </c>
       <c r="F479" t="s" s="0">
         <v>243</v>
@@ -32272,33 +33063,33 @@
         <v>20</v>
       </c>
       <c r="H479" t="s" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I479" t="s" s="0">
-        <v>15</v>
+        <v>1396</v>
       </c>
       <c r="J479" t="s" s="0">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K479" t="s" s="0">
-        <v>17</v>
+        <v>428</v>
       </c>
       <c r="L479" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M479" t="s" s="0">
-        <v>1395</v>
+        <v>21</v>
       </c>
       <c r="N479" t="s" s="0">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s" s="0">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B480" t="s" s="0">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="C480" t="s" s="0">
         <v>16</v>
@@ -32307,10 +33098,10 @@
         <v>53</v>
       </c>
       <c r="E480" t="s" s="0">
-        <v>660</v>
+        <v>1399</v>
       </c>
       <c r="F480" t="s" s="0">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="G480" t="s" s="0">
         <v>20</v>
@@ -32319,7 +33110,7 @@
         <v>27</v>
       </c>
       <c r="I480" t="s" s="0">
-        <v>661</v>
+        <v>1396</v>
       </c>
       <c r="J480" t="s" s="0">
         <v>29</v>
@@ -32328,13 +33119,981 @@
         <v>428</v>
       </c>
       <c r="L480" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M480" t="s" s="0">
-        <v>1395</v>
+        <v>21</v>
       </c>
       <c r="N480" t="s" s="0">
-        <v>1398</v>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s" s="0">
+        <v>1401</v>
+      </c>
+      <c r="B481" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="C481" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D481" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E481" t="s" s="0">
+        <v>1402</v>
+      </c>
+      <c r="F481" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G481" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H481" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I481" t="s" s="0">
+        <v>1403</v>
+      </c>
+      <c r="J481" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K481" t="s" s="0">
+        <v>964</v>
+      </c>
+      <c r="L481" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M481" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N481" t="s" s="0">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="0">
+        <v>1405</v>
+      </c>
+      <c r="B482" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="C482" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D482" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E482" t="s" s="0">
+        <v>1406</v>
+      </c>
+      <c r="F482" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G482" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H482" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I482" t="s" s="0">
+        <v>1403</v>
+      </c>
+      <c r="J482" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K482" t="s" s="0">
+        <v>964</v>
+      </c>
+      <c r="L482" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M482" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N482" t="s" s="0">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="0">
+        <v>1408</v>
+      </c>
+      <c r="B483" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="C483" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D483" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E483" t="s" s="0">
+        <v>1409</v>
+      </c>
+      <c r="F483" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G483" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H483" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I483" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J483" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K483" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="L483" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M483" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N483" t="s" s="0">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="0">
+        <v>1411</v>
+      </c>
+      <c r="B484" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="C484" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D484" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E484" t="s" s="0">
+        <v>1412</v>
+      </c>
+      <c r="F484" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G484" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H484" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I484" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J484" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K484" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L484" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M484" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N484" t="s" s="0">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="0">
+        <v>1414</v>
+      </c>
+      <c r="B485" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="C485" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D485" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E485" t="s" s="0">
+        <v>1415</v>
+      </c>
+      <c r="F485" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G485" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H485" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I485" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="J485" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K485" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="L485" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M485" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N485" t="s" s="0">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="0">
+        <v>1417</v>
+      </c>
+      <c r="B486" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="C486" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D486" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E486" t="s" s="0">
+        <v>1418</v>
+      </c>
+      <c r="F486" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G486" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H486" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I486" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J486" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K486" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="L486" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M486" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N486" t="s" s="0">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="0">
+        <v>1420</v>
+      </c>
+      <c r="B487" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="C487" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D487" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E487" t="s" s="0">
+        <v>1421</v>
+      </c>
+      <c r="F487" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G487" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H487" t="s" s="0">
+        <v>1422</v>
+      </c>
+      <c r="I487" t="s" s="0">
+        <v>1423</v>
+      </c>
+      <c r="J487" t="s" s="0">
+        <v>1424</v>
+      </c>
+      <c r="K487" t="s" s="0">
+        <v>1425</v>
+      </c>
+      <c r="L487" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M487" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N487" t="s" s="0">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="0">
+        <v>1427</v>
+      </c>
+      <c r="B488" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="C488" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D488" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E488" t="s" s="0">
+        <v>1428</v>
+      </c>
+      <c r="F488" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G488" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H488" t="s" s="0">
+        <v>1422</v>
+      </c>
+      <c r="I488" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="J488" t="s" s="0">
+        <v>1424</v>
+      </c>
+      <c r="K488" t="s" s="0">
+        <v>1430</v>
+      </c>
+      <c r="L488" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M488" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N488" t="s" s="0">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="0">
+        <v>1432</v>
+      </c>
+      <c r="B489" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="C489" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D489" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E489" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="F489" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G489" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H489" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I489" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J489" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K489" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="L489" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M489" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N489" t="s" s="0">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="B490" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C490" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D490" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E490" t="s" s="0">
+        <v>1436</v>
+      </c>
+      <c r="F490" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G490" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H490" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I490" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J490" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K490" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="L490" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M490" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N490" t="s" s="0">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s" s="0">
+        <v>1438</v>
+      </c>
+      <c r="B491" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="C491" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D491" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E491" t="s" s="0">
+        <v>1439</v>
+      </c>
+      <c r="F491" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G491" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H491" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I491" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J491" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K491" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="L491" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M491" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N491" t="s" s="0">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s" s="0">
+        <v>1441</v>
+      </c>
+      <c r="B492" t="s" s="0">
+        <v>1074</v>
+      </c>
+      <c r="C492" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D492" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E492" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="F492" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G492" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H492" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I492" t="s" s="0">
+        <v>1443</v>
+      </c>
+      <c r="J492" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K492" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="L492" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M492" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N492" t="s" s="0">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s" s="0">
+        <v>1445</v>
+      </c>
+      <c r="B493" t="s" s="0">
+        <v>1074</v>
+      </c>
+      <c r="C493" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D493" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E493" t="s" s="0">
+        <v>1446</v>
+      </c>
+      <c r="F493" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G493" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H493" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I493" t="s" s="0">
+        <v>1447</v>
+      </c>
+      <c r="J493" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K493" t="s" s="0">
+        <v>964</v>
+      </c>
+      <c r="L493" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M493" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N493" t="s" s="0">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s" s="0">
+        <v>1449</v>
+      </c>
+      <c r="B494" t="s" s="0">
+        <v>1083</v>
+      </c>
+      <c r="C494" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D494" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E494" t="s" s="0">
+        <v>1450</v>
+      </c>
+      <c r="F494" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G494" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H494" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I494" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J494" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K494" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L494" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M494" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N494" t="s" s="0">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s" s="0">
+        <v>1452</v>
+      </c>
+      <c r="B495" t="s" s="0">
+        <v>1083</v>
+      </c>
+      <c r="C495" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D495" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E495" t="s" s="0">
+        <v>1453</v>
+      </c>
+      <c r="F495" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G495" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H495" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I495" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="J495" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K495" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="L495" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M495" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N495" t="s" s="0">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s" s="0">
+        <v>1455</v>
+      </c>
+      <c r="B496" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="C496" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D496" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E496" t="s" s="0">
+        <v>1456</v>
+      </c>
+      <c r="F496" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G496" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H496" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I496" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J496" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K496" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L496" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M496" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N496" t="s" s="0">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s" s="0">
+        <v>1458</v>
+      </c>
+      <c r="B497" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="C497" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D497" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E497" t="s" s="0">
+        <v>1459</v>
+      </c>
+      <c r="F497" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G497" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H497" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I497" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="J497" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K497" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="L497" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M497" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N497" t="s" s="0">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s" s="0">
+        <v>1461</v>
+      </c>
+      <c r="B498" t="s" s="0">
+        <v>1159</v>
+      </c>
+      <c r="C498" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D498" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E498" t="s" s="0">
+        <v>1462</v>
+      </c>
+      <c r="F498" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G498" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H498" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I498" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J498" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K498" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="L498" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M498" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N498" t="s" s="0">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s" s="0">
+        <v>1464</v>
+      </c>
+      <c r="B499" t="s" s="0">
+        <v>1159</v>
+      </c>
+      <c r="C499" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D499" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E499" t="s" s="0">
+        <v>1465</v>
+      </c>
+      <c r="F499" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G499" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H499" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I499" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J499" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K499" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="L499" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M499" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N499" t="s" s="0">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s" s="0">
+        <v>1467</v>
+      </c>
+      <c r="B500" t="s" s="0">
+        <v>1159</v>
+      </c>
+      <c r="C500" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D500" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E500" t="s" s="0">
+        <v>1468</v>
+      </c>
+      <c r="F500" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G500" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H500" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I500" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="J500" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K500" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L500" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M500" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="N500" t="s" s="0">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s" s="0">
+        <v>1470</v>
+      </c>
+      <c r="B501" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="C501" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D501" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E501" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="F501" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G501" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H501" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I501" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J501" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K501" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L501" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M501" t="s" s="0">
+        <v>1471</v>
+      </c>
+      <c r="N501" t="s" s="0">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s" s="0">
+        <v>1473</v>
+      </c>
+      <c r="B502" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C502" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D502" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E502" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="F502" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G502" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H502" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I502" t="s" s="0">
+        <v>661</v>
+      </c>
+      <c r="J502" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K502" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="L502" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M502" t="s" s="0">
+        <v>1471</v>
+      </c>
+      <c r="N502" t="s" s="0">
+        <v>1474</v>
       </c>
     </row>
   </sheetData>
